--- a/generated-excel.xlsx
+++ b/generated-excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,9 +371,6 @@
     <t>]</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>{</t>
   </si>
   <si>
@@ -492,6 +489,9 @@
   </si>
   <si>
     <t>arg_list</t>
+  </si>
+  <si>
+    <t>while</t>
   </si>
 </sst>
 </file>
@@ -814,11 +814,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="BA2" sqref="BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="27" max="27" width="17.1640625" customWidth="1"/>
+    <col min="28" max="28" width="18" customWidth="1"/>
+    <col min="29" max="29" width="20.33203125" customWidth="1"/>
+    <col min="30" max="30" width="16" customWidth="1"/>
+    <col min="39" max="39" width="16.6640625" customWidth="1"/>
+    <col min="40" max="40" width="27.5" customWidth="1"/>
+    <col min="41" max="41" width="19.6640625" customWidth="1"/>
+    <col min="42" max="42" width="23" customWidth="1"/>
+    <col min="43" max="43" width="21.6640625" customWidth="1"/>
+    <col min="51" max="51" width="9.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -855,127 +867,127 @@
         <v>112</v>
       </c>
       <c r="M1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA1" t="s">
         <v>119</v>
-      </c>
-      <c r="N1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T1" t="s">
-        <v>113</v>
-      </c>
-      <c r="U1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V1" t="s">
-        <v>147</v>
-      </c>
-      <c r="W1" t="s">
-        <v>114</v>
-      </c>
-      <c r="X1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
